--- a/QT_VO2max_Data/Xining_VO2_QT_values_revisited_20June2019/Xining_2200m_4200m_physioflow_summary.xlsx
+++ b/QT_VO2max_Data/Xining_VO2_QT_values_revisited_20June2019/Xining_2200m_4200m_physioflow_summary.xlsx
@@ -1,16 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wanju\Desktop\check\QT_VO2max_Data\Xining_VO2_QT_values_revisited_20June2019\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{211D3448-B37A-45C8-949F-D7034291BDF2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="330" windowWidth="22755" windowHeight="9750" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2200m" sheetId="1" r:id="rId1"/>
     <sheet name="42000m" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -221,7 +235,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -300,6 +314,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -347,7 +364,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -380,9 +397,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -415,6 +449,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -590,18 +641,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R172"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L42" sqref="L42"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="17" width="10.28515625" style="2" customWidth="1"/>
+    <col min="2" max="15" width="10.28515625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="26" style="2" customWidth="1"/>
     <col min="19" max="16384" width="9.140625" style="2"/>
   </cols>
@@ -7828,11 +7881,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R164"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>

--- a/QT_VO2max_Data/Xining_VO2_QT_values_revisited_20June2019/Xining_2200m_4200m_physioflow_summary.xlsx
+++ b/QT_VO2max_Data/Xining_VO2_QT_values_revisited_20June2019/Xining_2200m_4200m_physioflow_summary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wanju\Desktop\check\QT_VO2max_Data\Xining_VO2_QT_values_revisited_20June2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{211D3448-B37A-45C8-949F-D7034291BDF2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{847F2BE7-94F0-430B-B8AA-C9F86E9285DB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="72">
   <si>
     <t>2200m</t>
   </si>
@@ -231,12 +231,27 @@
   <si>
     <t>no rest</t>
   </si>
+  <si>
+    <t>There is little change of QT</t>
+  </si>
+  <si>
+    <t>Use the repeat data</t>
+  </si>
+  <si>
+    <t>Dataset not found</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max is lower than submax; </t>
+  </si>
+  <si>
+    <t>Patient not trying</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -256,6 +271,34 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -281,7 +324,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -302,6 +345,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -646,7 +710,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J17" sqref="J17"/>
+      <selection pane="bottomLeft" activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -853,7 +917,7 @@
         <v>66.333333333333329</v>
       </c>
       <c r="E9" s="6">
-        <v>13.016666666666666</v>
+        <v>13.08</v>
       </c>
       <c r="F9" s="6">
         <v>8.16</v>
@@ -1097,7 +1161,7 @@
         <v>98.75</v>
       </c>
       <c r="E15" s="6">
-        <v>15.065000000000001</v>
+        <v>6.04</v>
       </c>
       <c r="F15" s="6">
         <v>7.9124999999999996</v>
@@ -1408,7 +1472,7 @@
         <v>72.538461538461533</v>
       </c>
       <c r="E23" s="6">
-        <v>12.533846153846154</v>
+        <v>13.61</v>
       </c>
       <c r="F23" s="6">
         <v>7.7784615384615385</v>
@@ -2308,7 +2372,7 @@
         <v>72.25</v>
       </c>
       <c r="E44" s="6">
-        <v>11.12</v>
+        <v>11.26</v>
       </c>
       <c r="F44" s="6">
         <v>7.0175000000000001</v>
@@ -2517,7 +2581,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
         <v>25</v>
       </c>
@@ -2567,7 +2631,7 @@
         <v>55.5</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
@@ -2584,7 +2648,7 @@
       <c r="P50" s="7"/>
       <c r="Q50" s="7"/>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>37</v>
       </c>
@@ -2637,7 +2701,7 @@
         <v>46.93333333333333</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
         <v>24</v>
       </c>
@@ -2687,7 +2751,7 @@
         <v>40.571428571428569</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="s">
         <v>32</v>
       </c>
@@ -2737,7 +2801,7 @@
         <v>41.142857142857146</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
         <v>25</v>
       </c>
@@ -2787,7 +2851,7 @@
         <v>42.285714285714285</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
@@ -2804,7 +2868,7 @@
       <c r="P55" s="7"/>
       <c r="Q55" s="7"/>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
@@ -2821,7 +2885,7 @@
       <c r="P56" s="7"/>
       <c r="Q56" s="7"/>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>38</v>
       </c>
@@ -2874,7 +2938,7 @@
         <v>37.416666666666664</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B58" s="2" t="s">
         <v>24</v>
       </c>
@@ -2924,7 +2988,7 @@
         <v>24.142857142857142</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B59" s="2" t="s">
         <v>32</v>
       </c>
@@ -2974,7 +3038,7 @@
         <v>31.75</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B60" s="2" t="s">
         <v>25</v>
       </c>
@@ -3024,7 +3088,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
@@ -3041,210 +3105,216 @@
       <c r="P61" s="7"/>
       <c r="Q61" s="7"/>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A62" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C62" s="6">
+      <c r="C62" s="13">
         <v>91.555555555555557</v>
       </c>
-      <c r="D62" s="6">
+      <c r="D62" s="13">
         <v>52.777777777777779</v>
       </c>
-      <c r="E62" s="6">
-        <v>4.8755555555555548</v>
-      </c>
-      <c r="F62" s="6">
+      <c r="E62" s="13">
+        <v>4.0339999999999998</v>
+      </c>
+      <c r="F62" s="13">
         <v>3.5999999999999996</v>
       </c>
-      <c r="G62" s="6">
+      <c r="G62" s="13">
         <v>55.444444444444443</v>
       </c>
-      <c r="H62" s="6">
+      <c r="H62" s="13">
         <v>429.66666666666669</v>
       </c>
-      <c r="I62" s="6">
+      <c r="I62" s="13">
         <v>117.77777777777777</v>
       </c>
-      <c r="J62" s="6">
+      <c r="J62" s="13">
         <v>108.33333333333333</v>
       </c>
-      <c r="K62" s="6">
+      <c r="K62" s="13">
         <v>93.111111111111114</v>
       </c>
-      <c r="L62" s="6">
+      <c r="L62" s="13">
         <v>94.555555555555557</v>
       </c>
-      <c r="M62" s="6">
+      <c r="M62" s="13">
         <v>1544.5555555555557</v>
       </c>
-      <c r="N62" s="6">
+      <c r="N62" s="13">
         <v>2091.8888888888887</v>
       </c>
-      <c r="O62" s="6">
+      <c r="O62" s="13">
         <v>4.7077777777777783</v>
       </c>
-      <c r="P62" s="6">
+      <c r="P62" s="13">
         <v>231.33333333333334</v>
       </c>
-      <c r="Q62" s="6">
+      <c r="Q62" s="13">
         <v>35</v>
       </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B63" s="2" t="s">
+      <c r="R62" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A63" s="11"/>
+      <c r="B63" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C63" s="6">
+      <c r="C63" s="13">
         <v>159.14285714285714</v>
       </c>
-      <c r="D63" s="6">
+      <c r="D63" s="13">
         <v>16.142857142857142</v>
       </c>
-      <c r="E63" s="6">
+      <c r="E63" s="13">
         <v>2.6114285714285717</v>
       </c>
-      <c r="F63" s="6">
+      <c r="F63" s="13">
         <v>1.9285714285714286</v>
       </c>
-      <c r="G63" s="6">
+      <c r="G63" s="13">
         <v>44.142857142857146</v>
       </c>
-      <c r="H63" s="6">
+      <c r="H63" s="13">
         <v>102.42857142857143</v>
       </c>
-      <c r="I63" s="6">
+      <c r="I63" s="13">
         <v>48.571428571428569</v>
       </c>
-      <c r="J63" s="6">
+      <c r="J63" s="13">
         <v>74.428571428571431</v>
       </c>
-      <c r="K63" s="6">
+      <c r="K63" s="13">
         <v>52.142857142857146</v>
       </c>
-      <c r="L63" s="6">
+      <c r="L63" s="13">
         <v>36.428571428571431</v>
       </c>
-      <c r="M63" s="6">
+      <c r="M63" s="13">
         <v>1831.2857142857142</v>
       </c>
-      <c r="N63" s="6">
+      <c r="N63" s="13">
         <v>2480</v>
       </c>
-      <c r="O63" s="6">
+      <c r="O63" s="13">
         <v>1.475714285714286</v>
       </c>
-      <c r="P63" s="6">
+      <c r="P63" s="13">
         <v>148.57142857142858</v>
       </c>
-      <c r="Q63" s="6">
+      <c r="Q63" s="13">
         <v>99</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B64" s="2" t="s">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A64" s="11"/>
+      <c r="B64" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C64" s="6">
+      <c r="C64" s="13">
         <v>164</v>
       </c>
-      <c r="D64" s="6">
+      <c r="D64" s="13">
         <v>12.5</v>
       </c>
-      <c r="E64" s="6">
+      <c r="E64" s="13">
         <v>2.1550000000000002</v>
       </c>
-      <c r="F64" s="6">
+      <c r="F64" s="13">
         <v>1.5925</v>
       </c>
-      <c r="G64" s="6">
+      <c r="G64" s="13">
         <v>39.75</v>
       </c>
-      <c r="H64" s="6">
+      <c r="H64" s="13">
         <v>95.25</v>
       </c>
-      <c r="I64" s="6">
+      <c r="I64" s="13">
         <v>33</v>
       </c>
-      <c r="J64" s="6">
+      <c r="J64" s="13">
         <v>67.25</v>
       </c>
-      <c r="K64" s="6">
+      <c r="K64" s="13">
         <v>50</v>
       </c>
-      <c r="L64" s="6">
+      <c r="L64" s="13">
         <v>31.5</v>
       </c>
-      <c r="M64" s="6">
+      <c r="M64" s="13">
         <v>2111.75</v>
       </c>
-      <c r="N64" s="6">
+      <c r="N64" s="13">
         <v>2860.25</v>
       </c>
-      <c r="O64" s="6">
+      <c r="O64" s="13">
         <v>1.1499999999999999</v>
       </c>
-      <c r="P64" s="6">
+      <c r="P64" s="13">
         <v>140.75</v>
       </c>
-      <c r="Q64" s="6">
+      <c r="Q64" s="13">
         <v>153</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B65" s="2" t="s">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A65" s="11"/>
+      <c r="B65" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C65" s="6">
+      <c r="C65" s="13">
         <v>157.5</v>
       </c>
-      <c r="D65" s="6">
+      <c r="D65" s="13">
         <v>16.25</v>
       </c>
-      <c r="E65" s="6">
-        <v>2.6850000000000001</v>
-      </c>
-      <c r="F65" s="6">
+      <c r="E65" s="13">
+        <v>10.029999999999999</v>
+      </c>
+      <c r="F65" s="13">
         <v>1.9824999999999999</v>
       </c>
-      <c r="G65" s="6">
+      <c r="G65" s="13">
         <v>41.25</v>
       </c>
-      <c r="H65" s="6">
+      <c r="H65" s="13">
         <v>133.75</v>
       </c>
-      <c r="I65" s="6">
+      <c r="I65" s="13">
         <v>38.5</v>
       </c>
-      <c r="J65" s="6">
+      <c r="J65" s="13">
         <v>72</v>
       </c>
-      <c r="K65" s="6">
+      <c r="K65" s="13">
         <v>56.75</v>
       </c>
-      <c r="L65" s="6">
+      <c r="L65" s="13">
         <v>39</v>
       </c>
-      <c r="M65" s="6">
+      <c r="M65" s="13">
         <v>2146.25</v>
       </c>
-      <c r="N65" s="6">
+      <c r="N65" s="13">
         <v>2906.75</v>
       </c>
-      <c r="O65" s="6">
+      <c r="O65" s="13">
         <v>1.6449999999999998</v>
       </c>
-      <c r="P65" s="6">
+      <c r="P65" s="13">
         <v>150.75</v>
       </c>
-      <c r="Q65" s="6">
+      <c r="Q65" s="13">
         <v>149</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
@@ -3261,160 +3331,165 @@
       <c r="P66" s="7"/>
       <c r="Q66" s="7"/>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A67" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C67" s="6">
+      <c r="C67" s="10">
         <v>172.57142857142858</v>
       </c>
-      <c r="D67" s="6">
+      <c r="D67" s="10">
         <v>39.571428571428569</v>
       </c>
-      <c r="E67" s="6">
+      <c r="E67" s="10">
         <v>6.9314285714285715</v>
       </c>
-      <c r="F67" s="6">
+      <c r="F67" s="10">
         <v>4.7714285714285714</v>
       </c>
-      <c r="G67" s="6">
+      <c r="G67" s="10">
         <v>65.857142857142861</v>
       </c>
-      <c r="H67" s="6">
+      <c r="H67" s="10">
         <v>180.57142857142858</v>
       </c>
-      <c r="I67" s="6">
+      <c r="I67" s="10">
         <v>165.28571428571428</v>
       </c>
-      <c r="J67" s="6">
+      <c r="J67" s="10">
         <v>114.85714285714286</v>
       </c>
-      <c r="K67" s="6">
+      <c r="K67" s="10">
         <v>55.142857142857146</v>
       </c>
-      <c r="L67" s="6">
+      <c r="L67" s="10">
         <v>60.142857142857146</v>
       </c>
-      <c r="M67" s="6">
+      <c r="M67" s="10">
         <v>841.71428571428567</v>
       </c>
-      <c r="N67" s="6">
+      <c r="N67" s="10">
         <v>1223</v>
       </c>
-      <c r="O67" s="6">
+      <c r="O67" s="10">
         <v>4.8100000000000005</v>
       </c>
-      <c r="P67" s="6">
+      <c r="P67" s="10">
         <v>101.57142857142857</v>
       </c>
-      <c r="Q67" s="6">
+      <c r="Q67" s="10">
         <v>41.571428571428569</v>
       </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B68" s="2" t="s">
+      <c r="R67" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A68" s="8"/>
+      <c r="B68" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C68" s="6">
+      <c r="C68" s="10">
         <v>182.25</v>
       </c>
-      <c r="D68" s="6">
+      <c r="D68" s="10">
         <v>37.75</v>
       </c>
-      <c r="E68" s="6">
+      <c r="E68" s="10">
         <v>6.9949999999999992</v>
       </c>
-      <c r="F68" s="6">
+      <c r="F68" s="10">
         <v>4.8125</v>
       </c>
-      <c r="G68" s="6">
+      <c r="G68" s="10">
         <v>65</v>
       </c>
-      <c r="H68" s="6">
+      <c r="H68" s="10">
         <v>170.75</v>
       </c>
-      <c r="I68" s="6">
+      <c r="I68" s="10">
         <v>159.75</v>
       </c>
-      <c r="J68" s="6">
+      <c r="J68" s="10">
         <v>113.75</v>
       </c>
-      <c r="K68" s="6">
+      <c r="K68" s="10">
         <v>53.5</v>
       </c>
-      <c r="L68" s="6">
+      <c r="L68" s="10">
         <v>58</v>
       </c>
-      <c r="M68" s="6">
+      <c r="M68" s="10">
         <v>818.25</v>
       </c>
-      <c r="N68" s="6">
+      <c r="N68" s="10">
         <v>1189</v>
       </c>
-      <c r="O68" s="6">
+      <c r="O68" s="10">
         <v>4.7525000000000004</v>
       </c>
-      <c r="P68" s="6">
+      <c r="P68" s="10">
         <v>96.75</v>
       </c>
-      <c r="Q68" s="6">
+      <c r="Q68" s="10">
         <v>43.25</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B69" s="2" t="s">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A69" s="8"/>
+      <c r="B69" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C69" s="6">
+      <c r="C69" s="10">
         <v>184.5</v>
       </c>
-      <c r="D69" s="6">
+      <c r="D69" s="10">
         <v>38.25</v>
       </c>
-      <c r="E69" s="6">
+      <c r="E69" s="10">
         <v>7.16</v>
       </c>
-      <c r="F69" s="6">
+      <c r="F69" s="10">
         <v>4.9249999999999998</v>
       </c>
-      <c r="G69" s="6">
+      <c r="G69" s="10">
         <v>65.25</v>
       </c>
-      <c r="H69" s="6">
+      <c r="H69" s="10">
         <v>172.75</v>
       </c>
-      <c r="I69" s="6">
+      <c r="I69" s="10">
         <v>161.5</v>
       </c>
-      <c r="J69" s="6">
+      <c r="J69" s="10">
         <v>114</v>
       </c>
-      <c r="K69" s="6">
+      <c r="K69" s="10">
         <v>54</v>
       </c>
-      <c r="L69" s="6">
+      <c r="L69" s="10">
         <v>58.25</v>
       </c>
-      <c r="M69" s="6">
+      <c r="M69" s="10">
         <v>803.25</v>
       </c>
-      <c r="N69" s="6">
+      <c r="N69" s="10">
         <v>1167</v>
       </c>
-      <c r="O69" s="6">
+      <c r="O69" s="10">
         <v>4.8875000000000002</v>
       </c>
-      <c r="P69" s="6">
+      <c r="P69" s="10">
         <v>97.75</v>
       </c>
-      <c r="Q69" s="6">
+      <c r="Q69" s="10">
         <v>46.5</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
@@ -3431,7 +3506,7 @@
       <c r="P70" s="7"/>
       <c r="Q70" s="7"/>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>41</v>
       </c>
@@ -3484,7 +3559,7 @@
         <v>46.38</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B72" s="2" t="s">
         <v>24</v>
       </c>
@@ -3534,7 +3609,7 @@
         <v>42.124285714285712</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B73" s="2" t="s">
         <v>25</v>
       </c>
@@ -3584,7 +3659,7 @@
         <v>47.262499999999996</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
       <c r="E74" s="7"/>
@@ -3601,7 +3676,7 @@
       <c r="P74" s="7"/>
       <c r="Q74" s="7"/>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>42</v>
       </c>
@@ -3654,7 +3729,7 @@
         <v>41.332777777777785</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B76" s="2" t="s">
         <v>24</v>
       </c>
@@ -3704,7 +3779,7 @@
         <v>38.758571428571429</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B77" s="2" t="s">
         <v>32</v>
       </c>
@@ -3754,7 +3829,7 @@
         <v>27.467142857142854</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B78" s="2" t="s">
         <v>25</v>
       </c>
@@ -3804,7 +3879,7 @@
         <v>20.229999999999997</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
       <c r="E79" s="7"/>
@@ -3821,7 +3896,7 @@
       <c r="P79" s="7"/>
       <c r="Q79" s="7"/>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>43</v>
       </c>
@@ -3874,7 +3949,7 @@
         <v>39.769500000000008</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B81" s="2" t="s">
         <v>24</v>
       </c>
@@ -3924,7 +3999,7 @@
         <v>48.320000000000007</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B82" s="2" t="s">
         <v>25</v>
       </c>
@@ -3935,7 +4010,7 @@
         <v>91.67923076923077</v>
       </c>
       <c r="E82" s="6">
-        <v>13.444615384615386</v>
+        <v>14.6</v>
       </c>
       <c r="F82" s="6">
         <v>7.8200000000000012</v>
@@ -3974,7 +4049,7 @@
         <v>49.560769230769239</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
       <c r="E83" s="7"/>
@@ -3991,7 +4066,7 @@
       <c r="P83" s="7"/>
       <c r="Q83" s="7"/>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>44</v>
       </c>
@@ -4044,7 +4119,7 @@
         <v>50.031999999999996</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B85" s="2" t="s">
         <v>24</v>
       </c>
@@ -4094,7 +4169,7 @@
         <v>43.284285714285716</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B86" s="2" t="s">
         <v>32</v>
       </c>
@@ -4144,7 +4219,7 @@
         <v>44.477499999999999</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B87" s="2" t="s">
         <v>45</v>
       </c>
@@ -4194,7 +4269,7 @@
         <v>42.897500000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B88" s="2" t="s">
         <v>25</v>
       </c>
@@ -4244,7 +4319,7 @@
         <v>56.107500000000002</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
       <c r="E89" s="7"/>
@@ -4261,7 +4336,7 @@
       <c r="P89" s="7"/>
       <c r="Q89" s="7"/>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>49</v>
       </c>
@@ -4314,7 +4389,7 @@
         <v>41.382249999999999</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B91" s="2" t="s">
         <v>24</v>
       </c>
@@ -4364,7 +4439,7 @@
         <v>59.47571428571429</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B92" s="2" t="s">
         <v>32</v>
       </c>
@@ -4414,7 +4489,7 @@
         <v>59.347999999999999</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B93" s="2" t="s">
         <v>25</v>
       </c>
@@ -4425,7 +4500,7 @@
         <v>78.717692307692317</v>
       </c>
       <c r="E93" s="6">
-        <v>12.835384615384616</v>
+        <v>13.76</v>
       </c>
       <c r="F93" s="6">
         <v>8.1615384615384627</v>
@@ -4464,7 +4539,7 @@
         <v>59.966153846153844</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
       <c r="E94" s="7"/>
@@ -4481,206 +4556,212 @@
       <c r="P94" s="7"/>
       <c r="Q94" s="7"/>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A95" s="3" t="s">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A95" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="B95" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C95" s="6">
+      <c r="C95" s="10">
         <v>78.047619047619051</v>
       </c>
-      <c r="D95" s="6">
+      <c r="D95" s="10">
         <v>70.595238095238102</v>
       </c>
-      <c r="E95" s="6">
+      <c r="E95" s="10">
         <v>5.5747619047619041</v>
       </c>
-      <c r="F95" s="6">
+      <c r="F95" s="10">
         <v>3.5423809523809533</v>
       </c>
-      <c r="G95" s="6">
+      <c r="G95" s="10">
         <v>63.904761904761905</v>
       </c>
-      <c r="H95" s="6">
+      <c r="H95" s="10">
         <v>439.45238095238096</v>
       </c>
-      <c r="I95" s="6">
+      <c r="I95" s="10">
         <v>140.95238095238096</v>
       </c>
-      <c r="J95" s="6">
+      <c r="J95" s="10">
         <v>116.61904761904762</v>
       </c>
-      <c r="K95" s="6">
+      <c r="K95" s="10">
         <v>70</v>
       </c>
-      <c r="L95" s="6">
+      <c r="L95" s="10">
         <v>109.97619047619048</v>
       </c>
-      <c r="M95" s="6">
+      <c r="M95" s="10">
         <v>1209.6904761904761</v>
       </c>
-      <c r="N95" s="6">
+      <c r="N95" s="10">
         <v>1903.1190476190477</v>
       </c>
-      <c r="O95" s="6">
+      <c r="O95" s="10">
         <v>4.1240476190476194</v>
       </c>
-      <c r="P95" s="6">
+      <c r="P95" s="10">
         <v>93.023809523809518</v>
       </c>
-      <c r="Q95" s="6">
+      <c r="Q95" s="10">
         <v>40.761904761904759</v>
       </c>
-    </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B96" s="2" t="s">
+      <c r="R95" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A96" s="8"/>
+      <c r="B96" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C96" s="6">
+      <c r="C96" s="10">
         <v>158</v>
       </c>
-      <c r="D96" s="6">
+      <c r="D96" s="10">
         <v>46.285714285714285</v>
       </c>
-      <c r="E96" s="6">
+      <c r="E96" s="10">
         <v>7.4300000000000006</v>
       </c>
-      <c r="F96" s="6">
+      <c r="F96" s="10">
         <v>4.7242857142857133</v>
       </c>
-      <c r="G96" s="6">
+      <c r="G96" s="10">
         <v>63</v>
       </c>
-      <c r="H96" s="6">
+      <c r="H96" s="10">
         <v>198.42857142857142</v>
       </c>
-      <c r="I96" s="6">
+      <c r="I96" s="10">
         <v>135.42857142857142</v>
       </c>
-      <c r="J96" s="6">
+      <c r="J96" s="10">
         <v>113</v>
       </c>
-      <c r="K96" s="6">
+      <c r="K96" s="10">
         <v>47.857142857142854</v>
       </c>
-      <c r="L96" s="6">
+      <c r="L96" s="10">
         <v>73.142857142857139</v>
       </c>
-      <c r="M96" s="6">
+      <c r="M96" s="10">
         <v>723.85714285714289</v>
       </c>
-      <c r="N96" s="6">
+      <c r="N96" s="10">
         <v>1138.8571428571429</v>
       </c>
-      <c r="O96" s="6">
+      <c r="O96" s="10">
         <v>4.3657142857142857</v>
       </c>
-      <c r="P96" s="6">
+      <c r="P96" s="10">
         <v>67.428571428571431</v>
       </c>
-      <c r="Q96" s="7">
+      <c r="Q96" s="14">
         <v>58.86</v>
       </c>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B97" s="2" t="s">
+      <c r="A97" s="8"/>
+      <c r="B97" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C97" s="6">
+      <c r="C97" s="10">
         <v>164.75</v>
       </c>
-      <c r="D97" s="6">
+      <c r="D97" s="10">
         <v>48.25</v>
       </c>
-      <c r="E97" s="6">
+      <c r="E97" s="10">
         <v>8.067499999999999</v>
       </c>
-      <c r="F97" s="6">
+      <c r="F97" s="10">
         <v>5.13</v>
       </c>
-      <c r="G97" s="6">
+      <c r="G97" s="10">
         <v>64.75</v>
       </c>
-      <c r="H97" s="6">
+      <c r="H97" s="10">
         <v>195.25</v>
       </c>
-      <c r="I97" s="6">
+      <c r="I97" s="10">
         <v>149.25</v>
       </c>
-      <c r="J97" s="6">
+      <c r="J97" s="10">
         <v>116</v>
       </c>
-      <c r="K97" s="6">
+      <c r="K97" s="10">
         <v>47.75</v>
       </c>
-      <c r="L97" s="6">
+      <c r="L97" s="10">
         <v>74.25</v>
       </c>
-      <c r="M97" s="6">
+      <c r="M97" s="10">
         <v>671.75</v>
       </c>
-      <c r="N97" s="6">
+      <c r="N97" s="10">
         <v>1056.75</v>
       </c>
-      <c r="O97" s="6">
+      <c r="O97" s="10">
         <v>4.78</v>
       </c>
-      <c r="P97" s="6">
+      <c r="P97" s="10">
         <v>72.25</v>
       </c>
-      <c r="Q97" s="6">
+      <c r="Q97" s="10">
         <v>59.75</v>
       </c>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B98" s="2" t="s">
+      <c r="A98" s="8"/>
+      <c r="B98" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C98" s="6">
+      <c r="C98" s="10">
         <v>168.25</v>
       </c>
-      <c r="D98" s="6">
+      <c r="D98" s="10">
         <v>49</v>
       </c>
-      <c r="E98" s="6">
+      <c r="E98" s="10">
         <v>8.3475000000000001</v>
       </c>
-      <c r="F98" s="6">
+      <c r="F98" s="10">
         <v>5.3049999999999997</v>
       </c>
-      <c r="G98" s="6">
+      <c r="G98" s="10">
         <v>65.75</v>
       </c>
-      <c r="H98" s="6">
+      <c r="H98" s="10">
         <v>188.25</v>
       </c>
-      <c r="I98" s="6">
+      <c r="I98" s="10">
         <v>158.75</v>
       </c>
-      <c r="J98" s="6">
+      <c r="J98" s="10">
         <v>118.25</v>
       </c>
-      <c r="K98" s="6">
+      <c r="K98" s="10">
         <v>46.75</v>
       </c>
-      <c r="L98" s="6">
+      <c r="L98" s="10">
         <v>74</v>
       </c>
-      <c r="M98" s="6">
+      <c r="M98" s="10">
         <v>650</v>
       </c>
-      <c r="N98" s="6">
+      <c r="N98" s="10">
         <v>1022.75</v>
       </c>
-      <c r="O98" s="6">
+      <c r="O98" s="10">
         <v>4.9375</v>
       </c>
-      <c r="P98" s="6">
+      <c r="P98" s="10">
         <v>69.75</v>
       </c>
-      <c r="Q98" s="6">
+      <c r="Q98" s="10">
         <v>61.25</v>
       </c>
     </row>
@@ -4815,7 +4896,7 @@
         <v>98.3</v>
       </c>
       <c r="E102" s="6">
-        <v>15.763999999999999</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="F102" s="6">
         <v>9.5749999999999993</v>
@@ -5294,7 +5375,7 @@
         <v>43.285714285714285</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C113" s="7"/>
       <c r="D113" s="7"/>
       <c r="E113" s="7"/>
@@ -5311,7 +5392,7 @@
       <c r="P113" s="7"/>
       <c r="Q113" s="7"/>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>51</v>
       </c>
@@ -5364,7 +5445,7 @@
         <v>44.6</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B115" s="2" t="s">
         <v>24</v>
       </c>
@@ -5414,7 +5495,7 @@
         <v>38.285714285714285</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B116" s="2" t="s">
         <v>32</v>
       </c>
@@ -5464,7 +5545,7 @@
         <v>37.75</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B117" s="2" t="s">
         <v>25</v>
       </c>
@@ -5514,7 +5595,7 @@
         <v>42.428571428571431</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C118" s="7"/>
       <c r="D118" s="7"/>
       <c r="E118" s="7"/>
@@ -5531,7 +5612,7 @@
       <c r="P118" s="7"/>
       <c r="Q118" s="7"/>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>52</v>
       </c>
@@ -5584,7 +5665,7 @@
         <v>49.166666666666664</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B120" s="2" t="s">
         <v>24</v>
       </c>
@@ -5634,7 +5715,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B121" s="2" t="s">
         <v>32</v>
       </c>
@@ -5684,7 +5765,7 @@
         <v>68.857142857142861</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B122" s="2" t="s">
         <v>25</v>
       </c>
@@ -5695,7 +5776,7 @@
         <v>77.900000000000006</v>
       </c>
       <c r="E122" s="6">
-        <v>12.896000000000001</v>
+        <v>15.17</v>
       </c>
       <c r="F122" s="6">
         <v>8.5220000000000002</v>
@@ -5734,7 +5815,7 @@
         <v>64.5</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C123" s="7"/>
       <c r="D123" s="7"/>
       <c r="E123" s="7"/>
@@ -5751,210 +5832,219 @@
       <c r="P123" s="7"/>
       <c r="Q123" s="7"/>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A124" s="3" t="s">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A124" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="B124" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C124" s="6">
+      <c r="C124" s="10">
         <v>97.333333333333329</v>
       </c>
-      <c r="D124" s="6">
+      <c r="D124" s="10">
         <v>70</v>
       </c>
-      <c r="E124" s="6">
+      <c r="E124" s="10">
         <v>6.8933333333333326</v>
       </c>
-      <c r="F124" s="6">
+      <c r="F124" s="10">
         <v>4.2388888888888898</v>
       </c>
-      <c r="G124" s="6">
+      <c r="G124" s="10">
         <v>76</v>
       </c>
-      <c r="H124" s="6">
+      <c r="H124" s="10">
         <v>444.11111111111109</v>
       </c>
-      <c r="I124" s="6">
+      <c r="I124" s="10">
         <v>223.77777777777777</v>
       </c>
-      <c r="J124" s="6">
+      <c r="J124" s="10">
         <v>111</v>
       </c>
-      <c r="K124" s="6">
+      <c r="K124" s="10">
         <v>68.777777777777771</v>
       </c>
-      <c r="L124" s="6">
+      <c r="L124" s="10">
         <v>91.555555555555557</v>
       </c>
-      <c r="M124" s="6">
+      <c r="M124" s="10">
         <v>884.66666666666663</v>
       </c>
-      <c r="N124" s="6">
+      <c r="N124" s="10">
         <v>1438.6666666666667</v>
       </c>
-      <c r="O124" s="6">
+      <c r="O124" s="10">
         <v>4.4544444444444444</v>
       </c>
-      <c r="P124" s="6">
+      <c r="P124" s="10">
         <v>59.333333333333336</v>
       </c>
-      <c r="Q124" s="6">
+      <c r="Q124" s="10">
         <v>36.777777777777779</v>
       </c>
-    </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B125" s="2" t="s">
+      <c r="R124" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A125" s="8"/>
+      <c r="B125" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C125" s="6">
+      <c r="C125" s="10">
         <v>137.25</v>
       </c>
-      <c r="D125" s="6">
+      <c r="D125" s="10">
         <v>69.5</v>
       </c>
-      <c r="E125" s="6">
+      <c r="E125" s="10">
         <v>9.6550000000000011</v>
       </c>
-      <c r="F125" s="6">
+      <c r="F125" s="10">
         <v>5.9349999999999996</v>
       </c>
-      <c r="G125" s="6">
+      <c r="G125" s="10">
         <v>69.5</v>
       </c>
-      <c r="H125" s="6">
+      <c r="H125" s="10">
         <v>215.5</v>
       </c>
-      <c r="I125" s="6">
+      <c r="I125" s="10">
         <v>156.5</v>
       </c>
-      <c r="J125" s="6">
+      <c r="J125" s="10">
         <v>110.25</v>
       </c>
-      <c r="K125" s="6">
+      <c r="K125" s="10">
         <v>68.5</v>
       </c>
-      <c r="L125" s="6">
+      <c r="L125" s="10">
         <v>100.25</v>
       </c>
-      <c r="M125" s="6">
+      <c r="M125" s="10">
         <v>691.5</v>
       </c>
-      <c r="N125" s="6">
+      <c r="N125" s="10">
         <v>1124.5</v>
       </c>
-      <c r="O125" s="6">
+      <c r="O125" s="10">
         <v>6.2424999999999997</v>
       </c>
-      <c r="P125" s="6">
+      <c r="P125" s="10">
         <v>29.25</v>
       </c>
-      <c r="Q125" s="6">
+      <c r="Q125" s="10">
         <v>106</v>
       </c>
-    </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B126" s="2" t="s">
+      <c r="R125" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A126" s="8"/>
+      <c r="B126" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C126" s="6">
+      <c r="C126" s="10">
         <v>144.25</v>
       </c>
-      <c r="D126" s="6">
+      <c r="D126" s="10">
         <v>66</v>
       </c>
-      <c r="E126" s="6">
+      <c r="E126" s="10">
         <v>9.6125000000000007</v>
       </c>
-      <c r="F126" s="6">
+      <c r="F126" s="10">
         <v>5.91</v>
       </c>
-      <c r="G126" s="6">
+      <c r="G126" s="10">
         <v>60.75</v>
       </c>
-      <c r="H126" s="6">
+      <c r="H126" s="10">
         <v>186.5</v>
       </c>
-      <c r="I126" s="6">
+      <c r="I126" s="10">
         <v>94.75</v>
       </c>
-      <c r="J126" s="6">
+      <c r="J126" s="10">
         <v>111</v>
       </c>
-      <c r="K126" s="6">
+      <c r="K126" s="10">
         <v>69</v>
       </c>
-      <c r="L126" s="6">
+      <c r="L126" s="10">
         <v>108</v>
       </c>
-      <c r="M126" s="6">
+      <c r="M126" s="10">
         <v>681.75</v>
       </c>
-      <c r="N126" s="6">
+      <c r="N126" s="10">
         <v>1108.75</v>
       </c>
-      <c r="O126" s="6">
+      <c r="O126" s="10">
         <v>6.2149999999999999</v>
       </c>
-      <c r="P126" s="6">
+      <c r="P126" s="10">
         <v>20.5</v>
       </c>
-      <c r="Q126" s="6">
+      <c r="Q126" s="10">
         <v>105</v>
       </c>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B127" s="2" t="s">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A127" s="8"/>
+      <c r="B127" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C127" s="6">
+      <c r="C127" s="10">
         <v>143.57142857142858</v>
       </c>
-      <c r="D127" s="6">
+      <c r="D127" s="10">
         <v>61.285714285714285</v>
       </c>
-      <c r="E127" s="6">
+      <c r="E127" s="10">
         <v>8.9042857142857148</v>
       </c>
-      <c r="F127" s="6">
+      <c r="F127" s="10">
         <v>5.4742857142857142</v>
       </c>
-      <c r="G127" s="6">
+      <c r="G127" s="10">
         <v>58.714285714285715</v>
       </c>
-      <c r="H127" s="6">
+      <c r="H127" s="10">
         <v>157.28571428571428</v>
       </c>
-      <c r="I127" s="6">
+      <c r="I127" s="10">
         <v>83.857142857142861</v>
       </c>
-      <c r="J127" s="6">
+      <c r="J127" s="10">
         <v>111</v>
       </c>
-      <c r="K127" s="6">
+      <c r="K127" s="10">
         <v>69</v>
       </c>
-      <c r="L127" s="6">
+      <c r="L127" s="10">
         <v>104.14285714285714</v>
       </c>
-      <c r="M127" s="6">
+      <c r="M127" s="10">
         <v>724.28571428571433</v>
       </c>
-      <c r="N127" s="6">
+      <c r="N127" s="10">
         <v>1177.8571428571429</v>
       </c>
-      <c r="O127" s="6">
+      <c r="O127" s="10">
         <v>5.7585714285714289</v>
       </c>
-      <c r="P127" s="6">
+      <c r="P127" s="10">
         <v>19.857142857142858</v>
       </c>
-      <c r="Q127" s="6">
+      <c r="Q127" s="10">
         <v>81.142857142857139</v>
       </c>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C128" s="7"/>
       <c r="D128" s="7"/>
       <c r="E128" s="7"/>
@@ -6965,7 +7055,7 @@
         <v>84.25</v>
       </c>
       <c r="E151" s="6">
-        <v>13.750000000000002</v>
+        <v>15.16</v>
       </c>
       <c r="F151" s="6">
         <v>9.4949999999999992</v>
@@ -7835,7 +7925,7 @@
         <v>83</v>
       </c>
       <c r="E172" s="6">
-        <v>13.324999999999999</v>
+        <v>13.41</v>
       </c>
       <c r="F172" s="6">
         <v>8.7275000000000009</v>
@@ -7876,7 +7966,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
